--- a/OPM经济数值/治安度.xlsx
+++ b/OPM经济数值/治安度.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/OPM_Excel/OPM经济数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26B65E5-677A-44F2-856B-E121B87B2C18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="治安度" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,45 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英</t>
-    <rPh sb="0" eb="1">
-      <t>jing'ying</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <rPh sb="0" eb="1">
-      <t>bao'xiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'guai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡</t>
-    <rPh sb="0" eb="1">
-      <t>qi'yu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,10 +271,6 @@
     <t>1131,1132,1133,1134,1135,1137,100,101,102,103,104,106,107,108,109,110,111,112</t>
   </si>
   <si>
-    <t>主目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1022,1028</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,11 +278,109 @@
     <t>累计完成{0}次主目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>击杀精英/个</t>
+    <rPh sb="0" eb="1">
+      <t>ji'sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取宝箱/个</t>
+    <rPh sb="0" eb="1">
+      <t>shi'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀Boss/个</t>
+    <rPh sb="0" eb="1">
+      <t>ji'sha</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀小怪/个</t>
+    <rPh sb="0" eb="1">
+      <t>ji'sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'guai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一拳扫荡/次</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'quan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救人质/次</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'jiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成主目标/次</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务时带有：</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +436,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -384,11 +444,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,9 +480,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -421,6 +487,31 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,44 +792,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="4.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="5.125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="5.1640625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="3"/>
-    <col min="19" max="20" width="6.375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="41" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="3"/>
+    <col min="18" max="18" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="6.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="5" style="3" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="18.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="41" width="5" style="3" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2">
         <v>2</v>
@@ -783,22 +875,22 @@
         <v>15</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="2">
         <v>2</v>
@@ -843,56 +935,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="14">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="H2" s="14">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3</v>
+      </c>
+      <c r="J2" s="14">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14">
+        <v>3</v>
+      </c>
+      <c r="L2" s="14">
         <v>4</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="14">
         <v>4</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="14">
         <v>4</v>
       </c>
-      <c r="O2" s="5">
-        <v>5</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5">
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="14">
         <v>5</v>
       </c>
       <c r="R2" s="3">
@@ -971,56 +1063,56 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="13">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="E3" s="14">
         <v>15</v>
       </c>
-      <c r="F3" s="5">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="F3" s="14">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14">
+        <v>20</v>
+      </c>
+      <c r="H3" s="14">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14">
         <v>25</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="14">
         <v>25</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="14">
         <v>25</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="14">
         <v>25</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="14">
         <v>25</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="14">
         <v>25</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="14">
         <v>25</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="14">
         <v>25</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="14">
         <v>25</v>
       </c>
       <c r="R3" s="3">
@@ -1099,56 +1191,56 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5">
-        <v>3</v>
-      </c>
-      <c r="N4" s="5">
-        <v>3</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3</v>
-      </c>
-      <c r="P4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3</v>
+      </c>
+      <c r="I4" s="14">
+        <v>3</v>
+      </c>
+      <c r="J4" s="14">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+      <c r="L4" s="14">
+        <v>3</v>
+      </c>
+      <c r="M4" s="14">
+        <v>3</v>
+      </c>
+      <c r="N4" s="14">
+        <v>3</v>
+      </c>
+      <c r="O4" s="14">
+        <v>3</v>
+      </c>
+      <c r="P4" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="14">
         <v>3</v>
       </c>
       <c r="R4" s="3">
@@ -1227,56 +1319,56 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="13">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14">
         <v>10</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="14">
         <v>10</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="14">
         <v>10</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="14">
         <v>10</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="14">
         <v>10</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="14">
         <v>10</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="14">
         <v>10</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="14">
         <v>10</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="14">
         <v>10</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="14">
         <v>10</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="14">
         <v>10</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="14">
         <v>10</v>
       </c>
       <c r="R5" s="3">
@@ -1355,56 +1447,56 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5">
-        <v>5</v>
-      </c>
-      <c r="P6" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="F6" s="14">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14">
+        <v>5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5</v>
+      </c>
+      <c r="L6" s="14">
+        <v>5</v>
+      </c>
+      <c r="M6" s="14">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <v>5</v>
+      </c>
+      <c r="O6" s="14">
+        <v>5</v>
+      </c>
+      <c r="P6" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="14">
         <v>5</v>
       </c>
       <c r="R6" s="3">
@@ -1483,28 +1575,38 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="13">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
         <v>10</v>
       </c>
-      <c r="L7" s="5">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14">
         <v>15</v>
       </c>
-      <c r="O7" s="5">
-        <v>20</v>
-      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>20</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="U7" s="5">
         <v>105</v>
       </c>
@@ -1578,19 +1680,32 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16">
         <v>8</v>
       </c>
-      <c r="C8" s="6">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="16">
+        <v>20</v>
+      </c>
+      <c r="D8" s="17">
         <v>2</v>
       </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
       <c r="U8" s="5">
         <v>106</v>
       </c>
@@ -1651,7 +1766,10 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="U9" s="5">
         <v>107</v>
       </c>
@@ -1669,47 +1787,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
         <v>100</v>
       </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14">
         <v>1</v>
       </c>
       <c r="U10" s="5">
@@ -1785,47 +1906,50 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14">
         <v>101</v>
       </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="14">
         <v>1</v>
       </c>
       <c r="U11" s="5">
@@ -1901,47 +2025,50 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
         <v>102</v>
       </c>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14">
         <v>1</v>
       </c>
       <c r="U12" s="5">
@@ -2017,47 +2144,50 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
         <v>103</v>
       </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14">
         <v>1</v>
       </c>
       <c r="U13" s="5">
@@ -2133,26 +2263,36 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
         <v>104</v>
       </c>
-      <c r="C14" s="6">
-        <v>5</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14">
         <v>1</v>
       </c>
       <c r="U14" s="5">
@@ -2228,29 +2368,38 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14">
         <v>105</v>
       </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="C15" s="13">
+        <v>5</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="14">
         <v>1</v>
       </c>
       <c r="U15" s="5">
@@ -2326,50 +2475,52 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14">
         <v>106</v>
       </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="C16" s="13">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="14">
         <v>1</v>
       </c>
       <c r="U16" s="5">
@@ -2445,50 +2596,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14">
         <v>107</v>
       </c>
-      <c r="C17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="C17" s="13">
+        <v>5</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="14">
         <v>1</v>
       </c>
       <c r="U17" s="5">
@@ -2567,50 +2720,52 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14">
         <v>108</v>
       </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5">
+      <c r="C18" s="13">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1</v>
+      </c>
+      <c r="P18" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="14">
         <v>1</v>
       </c>
       <c r="U18" s="5">
@@ -2689,50 +2844,52 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14">
         <v>109</v>
       </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="14">
         <v>1</v>
       </c>
       <c r="U19" s="5">
@@ -2811,34 +2968,42 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14">
         <v>110</v>
       </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
+      <c r="C20" s="13">
+        <v>5</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="14"/>
       <c r="AB20" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2896,32 +3061,40 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14">
         <v>111</v>
       </c>
-      <c r="C21" s="6">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="C21" s="13">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14">
         <v>1</v>
       </c>
       <c r="S21" s="3">
@@ -3011,32 +3184,40 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="14">
         <v>112</v>
       </c>
-      <c r="C22" s="6">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5">
+      <c r="C22" s="13">
+        <v>5</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14">
         <v>1</v>
       </c>
       <c r="S22" s="3">
@@ -3126,32 +3307,40 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14">
         <v>113</v>
       </c>
-      <c r="C23" s="6">
-        <v>5</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5">
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14">
+        <v>1</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="14">
         <v>1</v>
       </c>
       <c r="S23" s="3">
@@ -3241,35 +3430,42 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14">
         <v>114</v>
       </c>
-      <c r="C24" s="6">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5">
+      <c r="C24" s="13">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="14">
         <v>1</v>
       </c>
       <c r="S24" s="3">
@@ -3359,16 +3555,30 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="14">
         <v>115</v>
       </c>
-      <c r="C25" s="6">
-        <v>20</v>
-      </c>
+      <c r="C25" s="13">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="S25" s="3">
         <v>5</v>
       </c>
@@ -3456,16 +3666,30 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="14">
         <v>116</v>
       </c>
-      <c r="C26" s="10">
-        <v>20</v>
-      </c>
+      <c r="C26" s="20">
+        <v>20</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
       <c r="S26" s="3">
         <v>8</v>
       </c>
@@ -3553,16 +3777,30 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="17">
         <v>117</v>
       </c>
-      <c r="C27" s="6">
-        <v>20</v>
-      </c>
+      <c r="C27" s="16">
+        <v>20</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
       <c r="S27" s="3">
         <v>1</v>
       </c>
@@ -3650,7 +3888,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3727,9 +3965,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5">
@@ -3825,7 +4063,7 @@
         <v>6100300</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE29" s="3">
         <v>1</v>
@@ -3837,50 +4075,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="9">
         <v>40</v>
       </c>
-      <c r="D30" s="10">
-        <v>40</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>80</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>100</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>120</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>120</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>120</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>150</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>130</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>150</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>130</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>130</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <v>150</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="9">
         <v>130</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <v>140</v>
       </c>
       <c r="S30" s="3">
@@ -3920,7 +4158,7 @@
         <v>6100301</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AE30" s="3">
         <v>3</v>
@@ -3932,7 +4170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -4015,7 +4253,7 @@
         <v>6100302</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AE31" s="3">
         <v>1</v>
@@ -4027,50 +4265,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>40</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>50</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>50</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>50</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>50</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>50</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>50</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>50</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>50</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>50</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>50</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <v>50</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="9">
         <v>50</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <v>50</v>
       </c>
       <c r="S32" s="3">
@@ -4110,7 +4348,7 @@
         <v>6100303</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AE32" s="3">
         <v>1</v>
@@ -4122,7 +4360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>3</v>
       </c>
@@ -4205,7 +4443,7 @@
         <v>6100304</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AE33" s="3">
         <v>12</v>
@@ -4214,7 +4452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -4292,7 +4530,7 @@
         <v>6100306</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AE34" s="3">
         <v>3</v>
@@ -4304,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -4382,7 +4620,7 @@
         <v>6100307</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AE35" s="3">
         <v>13</v>
@@ -4391,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>6</v>
       </c>
@@ -4471,65 +4709,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D37" s="11" t="str">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="10" t="str">
         <f>D31&amp;","&amp;D32&amp;IF(D33="","",","&amp;D33)&amp;IF(D34="","",","&amp;D34)&amp;IF(D35="","",","&amp;D35)&amp;IF(D36="","",","&amp;D36)</f>
         <v>20,40</v>
       </c>
-      <c r="E37" s="11" t="str">
+      <c r="E37" s="10" t="str">
         <f t="shared" ref="E37:Q37" si="26">E31&amp;","&amp;E32&amp;IF(E33="","",","&amp;E33)&amp;IF(E34="","",","&amp;E34)&amp;IF(E35="","",","&amp;E35)&amp;IF(E36="","",","&amp;E36)</f>
         <v>20,50,80</v>
       </c>
-      <c r="F37" s="11" t="str">
+      <c r="F37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,120</v>
       </c>
-      <c r="G37" s="11" t="str">
+      <c r="G37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,150</v>
       </c>
-      <c r="H37" s="11" t="str">
+      <c r="H37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,150</v>
       </c>
-      <c r="I37" s="11" t="str">
+      <c r="I37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,150</v>
       </c>
-      <c r="J37" s="11" t="str">
+      <c r="J37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,180</v>
       </c>
-      <c r="K37" s="11" t="str">
+      <c r="K37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="L37" s="11" t="str">
+      <c r="L37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,180</v>
       </c>
-      <c r="M37" s="11" t="str">
+      <c r="M37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="N37" s="11" t="str">
+      <c r="N37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="O37" s="11" t="str">
+      <c r="O37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,180</v>
       </c>
-      <c r="P37" s="11" t="str">
+      <c r="P37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="Q37" s="11" t="str">
+      <c r="Q37" s="10" t="str">
         <f t="shared" si="26"/>
         <v>20,50,80,100,130,170</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S37" s="3">
         <f>S25</f>
@@ -4563,48 +4801,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="12" t="s">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="N38" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="O38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="Q38" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="S38" s="3">
         <f t="shared" ref="S38:S42" si="27">S27</f>
@@ -4639,18 +4877,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="S39" s="3">
         <f t="shared" si="27"/>
@@ -4685,7 +4923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -4693,11 +4931,11 @@
         <f>HLOOKUP(A40,$D$28:$Q$37,3,0)</f>
         <v>40</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="10" t="str">
         <f>HLOOKUP(A40,$D$28:$Q$38,10,0)</f>
         <v>20,40</v>
       </c>
-      <c r="D40" s="11" t="str">
+      <c r="D40" s="10" t="str">
         <f>HLOOKUP(A40,$D$28:$Q$38,11,0)</f>
         <v>1022,1028</v>
       </c>
@@ -4734,7 +4972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>3</v>
       </c>
@@ -4742,11 +4980,11 @@
         <f t="shared" ref="B41:B53" si="29">HLOOKUP(A41,$D$28:$Q$37,3,0)</f>
         <v>80</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="10" t="str">
         <f t="shared" ref="C41:C53" si="30">HLOOKUP(A41,$D$28:$Q$38,10,0)</f>
         <v>20,50,80</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D41" s="10" t="str">
         <f t="shared" ref="D41:D53" si="31">HLOOKUP(A41,$D$28:$Q$38,11,0)</f>
         <v>1032,1033,1034,1037</v>
       </c>
@@ -4783,7 +5021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>4</v>
       </c>
@@ -4791,11 +5029,11 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,120</v>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D42" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1041,1042,1043,1044,1045,106,107,108,109</v>
       </c>
@@ -4832,7 +5070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>5</v>
       </c>
@@ -4840,11 +5078,11 @@
         <f t="shared" si="29"/>
         <v>120</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,150</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D43" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1051,1052,1053,1054,1055,100,101,102,103,106,107,108,109,110,113</v>
       </c>
@@ -4881,7 +5119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -4889,11 +5127,11 @@
         <f t="shared" si="29"/>
         <v>120</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C44" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,150</v>
       </c>
-      <c r="D44" s="11" t="str">
+      <c r="D44" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1061,1062,1063,1064,1065,100,101,102,103,106,107,108,109,111,112</v>
       </c>
@@ -4930,7 +5168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>7</v>
       </c>
@@ -4938,11 +5176,11 @@
         <f t="shared" si="29"/>
         <v>120</v>
       </c>
-      <c r="C45" s="11" t="str">
+      <c r="C45" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,150</v>
       </c>
-      <c r="D45" s="11" t="str">
+      <c r="D45" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1071,1072,1073,1074,1075,100,101,102,103,106,107,108,109,110,114</v>
       </c>
@@ -4979,7 +5217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -4987,11 +5225,11 @@
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="C46" s="11" t="str">
+      <c r="C46" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,180</v>
       </c>
-      <c r="D46" s="11" t="str">
+      <c r="D46" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1081,1082,1083,1084,1085,1087,100,101,102,103,105,106,107,108,109,110,112,114</v>
       </c>
@@ -5028,7 +5266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>9</v>
       </c>
@@ -5036,11 +5274,11 @@
         <f t="shared" si="29"/>
         <v>130</v>
       </c>
-      <c r="C47" s="11" t="str">
+      <c r="C47" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="D47" s="11" t="str">
+      <c r="D47" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1091,1092,1093,1094,1095,100,101,102,103,104,106,107,108,109,111,113,114</v>
       </c>
@@ -5077,7 +5315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>10</v>
       </c>
@@ -5085,11 +5323,11 @@
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C48" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,180</v>
       </c>
-      <c r="D48" s="11" t="str">
+      <c r="D48" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1101,1102,1103,1104,1105,1107,100,101,102,103,105,106,107,108,109,110,111,113</v>
       </c>
@@ -5126,7 +5364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>11</v>
       </c>
@@ -5134,11 +5372,11 @@
         <f t="shared" si="29"/>
         <v>130</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C49" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="D49" s="11" t="str">
+      <c r="D49" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1111,1112,1113,1114,1115,100,101,102,103,104,106,107,108,109,111,112,114</v>
       </c>
@@ -5175,7 +5413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>12</v>
       </c>
@@ -5183,11 +5421,11 @@
         <f t="shared" si="29"/>
         <v>130</v>
       </c>
-      <c r="C50" s="11" t="str">
+      <c r="C50" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="D50" s="11" t="str">
+      <c r="D50" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1121,1122,1123,1124,1125,100,101,102,103,105,106,107,108,109,112,113,114</v>
       </c>
@@ -5224,7 +5462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>13</v>
       </c>
@@ -5232,11 +5470,11 @@
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,180</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D51" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1131,1132,1133,1134,1135,1137,100,101,102,103,104,106,107,108,109,110,111,112</v>
       </c>
@@ -5273,7 +5511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>14</v>
       </c>
@@ -5281,11 +5519,11 @@
         <f t="shared" si="29"/>
         <v>130</v>
       </c>
-      <c r="C52" s="11" t="str">
+      <c r="C52" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,160</v>
       </c>
-      <c r="D52" s="11" t="str">
+      <c r="D52" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1141,1142,1143,1144,1145,100,101,102,103,105,106,107,108,109,110,113,114</v>
       </c>
@@ -5322,7 +5560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>15</v>
       </c>
@@ -5330,11 +5568,11 @@
         <f t="shared" si="29"/>
         <v>140</v>
       </c>
-      <c r="C53" s="11" t="str">
+      <c r="C53" s="10" t="str">
         <f t="shared" si="30"/>
         <v>20,50,80,100,130,170</v>
       </c>
-      <c r="D53" s="11" t="str">
+      <c r="D53" s="10" t="str">
         <f t="shared" si="31"/>
         <v>1151,1152,1153,1154,1155,100,101,102,103,104,105,106,107,108,109,111,112,113,114</v>
       </c>
@@ -5371,7 +5609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="S54" s="3">
         <f t="shared" si="32"/>
         <v>2</v>
@@ -5405,13 +5643,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="D55" s="5">
         <f>COUNTIF(D2:D8,"&gt;0")*20</f>
         <v>40</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" ref="E55:Q55" si="33">COUNTIF(E2:E8,"&gt;0")*20</f>
+        <f t="shared" ref="E55:F55" si="33">COUNTIF(E2:E8,"&gt;0")*20</f>
         <v>80</v>
       </c>
       <c r="F55" s="5">
@@ -5495,7 +5733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S56" s="3">
         <f t="shared" si="32"/>
         <v>4</v>
@@ -5529,7 +5767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S57" s="3">
         <f t="shared" si="32"/>
         <v>5</v>
@@ -5563,7 +5801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S58" s="3">
         <v>7</v>
       </c>
@@ -5595,7 +5833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S59" s="3">
         <f t="shared" ref="S59:S68" si="36">S48</f>
         <v>1</v>
@@ -5629,7 +5867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S60" s="3">
         <f t="shared" si="36"/>
         <v>2</v>
@@ -5663,7 +5901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S61" s="3">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -5697,7 +5935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S62" s="3">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -5731,7 +5969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S63" s="3">
         <f t="shared" si="36"/>
         <v>5</v>
@@ -5765,7 +6003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="S64" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -5799,7 +6037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S65" s="3">
         <f t="shared" si="36"/>
         <v>2</v>
@@ -5833,7 +6071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S66" s="3">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -5867,7 +6105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S67" s="3">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -5901,7 +6139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S68" s="3">
         <f t="shared" si="36"/>
         <v>5</v>
@@ -5935,7 +6173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S69" s="3">
         <v>7</v>
       </c>
@@ -5967,7 +6205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S70" s="3">
         <f t="shared" ref="S70:S79" si="38">S59</f>
         <v>1</v>
@@ -6001,7 +6239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S71" s="3">
         <f t="shared" si="38"/>
         <v>2</v>
@@ -6035,7 +6273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S72" s="3">
         <f t="shared" si="38"/>
         <v>3</v>
@@ -6069,7 +6307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S73" s="3">
         <f t="shared" si="38"/>
         <v>4</v>
@@ -6103,7 +6341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S74" s="3">
         <f t="shared" si="38"/>
         <v>5</v>
@@ -6137,7 +6375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S75" s="3">
         <f t="shared" si="38"/>
         <v>1</v>
@@ -6171,7 +6409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S76" s="3">
         <f t="shared" si="38"/>
         <v>2</v>
@@ -6205,7 +6443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S77" s="3">
         <f t="shared" si="38"/>
         <v>3</v>
@@ -6239,7 +6477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S78" s="3">
         <f t="shared" si="38"/>
         <v>4</v>
@@ -6273,7 +6511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S79" s="3">
         <f t="shared" si="38"/>
         <v>5</v>
@@ -6307,7 +6545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S80" s="3">
         <f t="shared" ref="S80:S84" si="39">S70</f>
         <v>1</v>
@@ -6341,7 +6579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S81" s="3">
         <f t="shared" si="39"/>
         <v>2</v>
@@ -6375,7 +6613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S82" s="3">
         <f t="shared" si="39"/>
         <v>3</v>
@@ -6409,7 +6647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S83" s="3">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -6443,7 +6681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S84" s="3">
         <f t="shared" si="39"/>
         <v>5</v>
@@ -6477,7 +6715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S85" s="3">
         <v>7</v>
       </c>
@@ -6509,7 +6747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S86" s="3">
         <f t="shared" ref="S86:S95" si="41">S75</f>
         <v>1</v>
@@ -6543,7 +6781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S87" s="3">
         <f t="shared" si="41"/>
         <v>2</v>
@@ -6577,7 +6815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S88" s="3">
         <f t="shared" si="41"/>
         <v>3</v>
@@ -6611,7 +6849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S89" s="3">
         <f t="shared" si="41"/>
         <v>4</v>
@@ -6645,7 +6883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S90" s="3">
         <f t="shared" si="41"/>
         <v>5</v>
@@ -6679,7 +6917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S91" s="3">
         <f t="shared" si="41"/>
         <v>1</v>
@@ -6713,7 +6951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S92" s="3">
         <f t="shared" si="41"/>
         <v>2</v>
@@ -6747,7 +6985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S93" s="3">
         <f t="shared" si="41"/>
         <v>3</v>
@@ -6781,7 +7019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S94" s="3">
         <f t="shared" si="41"/>
         <v>4</v>
@@ -6815,7 +7053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="19:26" x14ac:dyDescent="0.15">
       <c r="S95" s="3">
         <f t="shared" si="41"/>
         <v>5</v>
